--- a/Расшифровка ЭО BIQ5257.xlsx
+++ b/Расшифровка ЭО BIQ5257.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Эрнест\Desktop\УЧЕБА\Диплом\20191121\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Эрнест\Desktop\УЧЕБА\Диплом\20191126\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -866,23 +866,23 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1336,8 +1336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2112,52 +2112,52 @@
       <c r="B6" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="81" t="s">
+      <c r="C6" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="80" t="s">
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="J6" s="80"/>
-      <c r="K6" s="80"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="80"/>
-      <c r="N6" s="80"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="78"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="45"/>
       <c r="B7" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="80" t="s">
+      <c r="C7" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80" t="s">
+      <c r="D7" s="78"/>
+      <c r="E7" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80" t="s">
+      <c r="F7" s="78"/>
+      <c r="G7" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80" t="s">
+      <c r="H7" s="78"/>
+      <c r="I7" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80" t="s">
+      <c r="J7" s="78"/>
+      <c r="K7" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="L7" s="80"/>
-      <c r="M7" s="80" t="s">
+      <c r="L7" s="78"/>
+      <c r="M7" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="N7" s="80"/>
+      <c r="N7" s="78"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="45"/>
@@ -2246,7 +2246,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="83" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="59" t="s">
@@ -2290,7 +2290,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="79"/>
+      <c r="A11" s="83"/>
       <c r="B11" s="59" t="s">
         <v>23</v>
       </c>
@@ -2332,7 +2332,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="79" t="s">
+      <c r="A12" s="83" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="59" t="s">
@@ -2376,7 +2376,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="79"/>
+      <c r="A13" s="83"/>
       <c r="B13" s="59" t="s">
         <v>6</v>
       </c>
@@ -2418,7 +2418,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="79" t="s">
+      <c r="A14" s="83" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="59" t="s">
@@ -2462,7 +2462,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="79"/>
+      <c r="A15" s="83"/>
       <c r="B15" s="59" t="s">
         <v>7</v>
       </c>
@@ -2504,7 +2504,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="79" t="s">
+      <c r="A16" s="83" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="59" t="s">
@@ -2548,7 +2548,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="79"/>
+      <c r="A17" s="83"/>
       <c r="B17" s="59" t="s">
         <v>30</v>
       </c>
@@ -2634,7 +2634,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="79" t="s">
+      <c r="A19" s="83" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="59" t="s">
@@ -2678,7 +2678,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="79"/>
+      <c r="A20" s="83"/>
       <c r="B20" s="59" t="s">
         <v>16</v>
       </c>
@@ -2774,7 +2774,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="78" t="s">
+      <c r="A22" s="82" t="s">
         <v>36</v>
       </c>
       <c r="B22" s="56" t="s">
@@ -2818,7 +2818,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="78"/>
+      <c r="A23" s="82"/>
       <c r="B23" s="56" t="s">
         <v>37</v>
       </c>
@@ -2860,7 +2860,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="78"/>
+      <c r="A24" s="82"/>
       <c r="B24" s="56" t="s">
         <v>38</v>
       </c>
@@ -2959,6 +2959,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A19:A20"/>
     <mergeCell ref="I6:N6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
@@ -2967,12 +2973,6 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="C6:H6"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A19:A20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3088,7 +3088,7 @@
         <v>83</v>
       </c>
       <c r="D9" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E9" s="4">
         <v>496</v>
@@ -3108,7 +3108,7 @@
         <v>23</v>
       </c>
       <c r="D10" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E10" s="4">
         <v>497</v>
@@ -3128,7 +3128,7 @@
         <v>84</v>
       </c>
       <c r="D11" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" s="4">
         <v>498</v>
@@ -3148,7 +3148,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E12" s="4">
         <v>499</v>
@@ -3168,7 +3168,7 @@
         <v>85</v>
       </c>
       <c r="D13" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E13" s="4">
         <v>500</v>
@@ -3188,7 +3188,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E14" s="4">
         <v>501</v>
@@ -3208,7 +3208,7 @@
         <v>86</v>
       </c>
       <c r="D15" s="4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E15" s="4">
         <v>502</v>
@@ -3228,7 +3228,7 @@
         <v>87</v>
       </c>
       <c r="D16" s="4">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E16" s="4">
         <v>503</v>
@@ -3248,7 +3248,7 @@
         <v>88</v>
       </c>
       <c r="D17" s="4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E17" s="4">
         <v>504</v>
@@ -3268,7 +3268,7 @@
         <v>89</v>
       </c>
       <c r="D18" s="4">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E18" s="4">
         <v>505</v>
@@ -3288,7 +3288,7 @@
         <v>16</v>
       </c>
       <c r="D19" s="4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E19" s="4">
         <v>506</v>
@@ -3317,7 +3317,7 @@
         <v>90</v>
       </c>
       <c r="D21" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E21" s="4">
         <v>508</v>
@@ -3337,7 +3337,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="4">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E22" s="4">
         <v>509</v>
@@ -3357,7 +3357,7 @@
         <v>91</v>
       </c>
       <c r="D23" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E23" s="4">
         <v>510</v>
@@ -3391,7 +3391,7 @@
         <v>34</v>
       </c>
       <c r="D26" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E26" s="4">
         <v>511</v>
@@ -3433,21 +3433,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Документ" ma:contentTypeID="0x0101001FBA738D46B8C545A6D67A5D9179E626" ma:contentTypeVersion="0" ma:contentTypeDescription="Создание документа." ma:contentTypeScope="" ma:versionID="9f473e0b291382668614debc5d36aa4f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="02f955febea7e716b4e91cddba171100">
     <xsd:element name="properties">
@@ -3561,17 +3546,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{676BF1D7-A4D9-4478-A8BA-91CF146DE1C8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D38F7E9-60F0-4769-BD1B-491B9D9189ED}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3585,17 +3586,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D38F7E9-60F0-4769-BD1B-491B9D9189ED}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{676BF1D7-A4D9-4478-A8BA-91CF146DE1C8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Расшифровка ЭО BIQ5257.xlsx
+++ b/Расшифровка ЭО BIQ5257.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Эрнест\Desktop\УЧЕБА\Диплом\20191126\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Эрнест\Desktop\УЧЕБА\Диплом\20191128\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8535" tabRatio="735" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8535" tabRatio="735" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Оценка" sheetId="25" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="101">
   <si>
     <t>Разработка</t>
   </si>
@@ -361,6 +361,15 @@
   </si>
   <si>
     <t>Разраб1</t>
+  </si>
+  <si>
+    <t>3;2#НН</t>
+  </si>
+  <si>
+    <t>4;6#ОО</t>
+  </si>
+  <si>
+    <t>10;4#ОО</t>
   </si>
 </sst>
 </file>
@@ -1337,7 +1346,7 @@
   <dimension ref="A1:AD28"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1463,14 +1472,14 @@
       </c>
       <c r="F8" s="50">
         <f>ROUND(D8,0)/$D$20</f>
-        <v>0.17204301075268819</v>
+        <v>0.13008130081300814</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>8</v>
       </c>
       <c r="I8" s="41">
         <f>D20/8</f>
-        <v>11.625</v>
+        <v>15.375</v>
       </c>
       <c r="S8" s="5"/>
     </row>
@@ -1483,7 +1492,7 @@
         <v>22</v>
       </c>
       <c r="D9" s="40">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E9" s="50">
         <f>IF(Справочники!$O$1=1,Справочники!$C10,  IF(Справочники!$O$1=2,Справочники!$D10,  IF(Справочники!$O$1=3,Справочники!$E10,  IF(Справочники!$O$1=4,Справочники!$F10, IF(Справочники!$O$1=5,Справочники!$G10, IF(Справочники!$O$1=6,Справочники!$H10,
@@ -1493,7 +1502,7 @@
       </c>
       <c r="F9" s="50">
         <f t="shared" ref="F9:F19" si="0">ROUND(D9,0)/$D$20</f>
-        <v>0</v>
+        <v>4.065040650406504E-2</v>
       </c>
       <c r="H9" s="16" t="s">
         <v>0</v>
@@ -1521,14 +1530,14 @@
       </c>
       <c r="F10" s="50">
         <f t="shared" si="0"/>
-        <v>5.3763440860215055E-2</v>
+        <v>4.065040650406504E-2</v>
       </c>
       <c r="H10" s="17" t="s">
         <v>12</v>
       </c>
       <c r="I10" s="42">
         <f>SUM(I8:I9)</f>
-        <v>21.625</v>
+        <v>25.375</v>
       </c>
       <c r="S10" s="5"/>
     </row>
@@ -1541,7 +1550,7 @@
         <v>24</v>
       </c>
       <c r="D11" s="40">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E11" s="50">
         <f>IF(Справочники!$O$1=1,Справочники!$C12,  IF(Справочники!$O$1=2,Справочники!$D12,  IF(Справочники!$O$1=3,Справочники!$E12,  IF(Справочники!$O$1=4,Справочники!$F12, IF(Справочники!$O$1=5,Справочники!$G12, IF(Справочники!$O$1=6,Справочники!$H12,
@@ -1551,7 +1560,7 @@
       </c>
       <c r="F11" s="50">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.3170731707317069E-2</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="16" t="s">
@@ -1559,7 +1568,7 @@
       </c>
       <c r="I11" s="43">
         <f>I10*13000</f>
-        <v>281125</v>
+        <v>329875</v>
       </c>
       <c r="T11" s="5"/>
     </row>
@@ -1570,7 +1579,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="39">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E12" s="50">
         <f>IF(Справочники!$O$1=1,Справочники!$C13,  IF(Справочники!$O$1=2,Справочники!$D13,  IF(Справочники!$O$1=3,Справочники!$E13,  IF(Справочники!$O$1=4,Справочники!$F13, IF(Справочники!$O$1=5,Справочники!$G13, IF(Справочники!$O$1=6,Справочники!$H13,
@@ -1580,7 +1589,7 @@
       </c>
       <c r="F12" s="50">
         <f t="shared" si="0"/>
-        <v>0.17204301075268819</v>
+        <v>0</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="16"/>
@@ -1596,8 +1605,7 @@
         <v>25</v>
       </c>
       <c r="D13" s="39">
-        <f>IF($C$5="Да",$D$9*E13/$E$9, IF($E$11=0,$D$14*E13/$E$14,$D$11*E13/$E$11))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E13" s="50">
         <f>IF(Справочники!$O$1=1,Справочники!$C14,  IF(Справочники!$O$1=2,Справочники!$D14,  IF(Справочники!$O$1=3,Справочники!$E14,  IF(Справочники!$O$1=4,Справочники!$F14, IF(Справочники!$O$1=5,Справочники!$G14, IF(Справочники!$O$1=6,Справочники!$H14,
@@ -1607,7 +1615,7 @@
       </c>
       <c r="F13" s="50">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.6260162601626018E-2</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="16" t="s">
@@ -1626,7 +1634,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="40">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E14" s="50">
         <f>IF(Справочники!$O$1=1,Справочники!$C15,  IF(Справочники!$O$1=2,Справочники!$D15,  IF(Справочники!$O$1=3,Справочники!$E15,  IF(Справочники!$O$1=4,Справочники!$F15, IF(Справочники!$O$1=5,Справочники!$G15, IF(Справочники!$O$1=6,Справочники!$H15,
@@ -1636,7 +1644,7 @@
       </c>
       <c r="F14" s="50">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.065040650406504E-2</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="16" t="s">
@@ -1657,8 +1665,7 @@
         <v>29</v>
       </c>
       <c r="D15" s="39">
-        <f>IF($C$5="Да",$D$9*E15/$E$9,IF($E$11=0,$D$14*E15/$E$14,$D$11*E15/$E$11))</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E15" s="50">
         <f>IF(Справочники!$O$1=1,Справочники!$C16,  IF(Справочники!$O$1=2,Справочники!$D16,  IF(Справочники!$O$1=3,Справочники!$E16,  IF(Справочники!$O$1=4,Справочники!$F16, IF(Справочники!$O$1=5,Справочники!$G16, IF(Справочники!$O$1=6,Справочники!$H16,
@@ -1668,7 +1675,7 @@
       </c>
       <c r="F15" s="50">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.12195121951219512</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="16" t="s">
@@ -1687,7 +1694,7 @@
         <v>30</v>
       </c>
       <c r="D16" s="39">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="E16" s="50">
         <f>IF(Справочники!$O$1=1,Справочники!$C17,  IF(Справочники!$O$1=2,Справочники!$D17,  IF(Справочники!$O$1=3,Справочники!$E17,  IF(Справочники!$O$1=4,Справочники!$F17, IF(Справочники!$O$1=5,Справочники!$G17, IF(Справочники!$O$1=6,Справочники!$H17,
@@ -1697,7 +1704,7 @@
       </c>
       <c r="F16" s="50">
         <f t="shared" si="0"/>
-        <v>0.34408602150537637</v>
+        <v>0</v>
       </c>
       <c r="G16" s="5"/>
       <c r="T16" s="5"/>
@@ -1721,7 +1728,7 @@
       </c>
       <c r="F17" s="50">
         <f t="shared" si="0"/>
-        <v>0.25806451612903225</v>
+        <v>0.1951219512195122</v>
       </c>
       <c r="G17" s="5"/>
       <c r="T17" s="5"/>
@@ -1735,8 +1742,7 @@
         <v>44</v>
       </c>
       <c r="D18" s="39">
-        <f t="shared" ref="D18:D19" si="1">IF($C$5="Да",$D$9*E18/$E$9,IF($E$11=0,$D$14*E18/$E$14,$D$11*E18/$E$11))</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E18" s="50">
         <f>IF(Справочники!$O$1=1,Справочники!$C19,  IF(Справочники!$O$1=2,Справочники!$D19,  IF(Справочники!$O$1=3,Справочники!$E19,  IF(Справочники!$O$1=4,Справочники!$F19, IF(Справочники!$O$1=5,Справочники!$G19, IF(Справочники!$O$1=6,Справочники!$H19,
@@ -1746,7 +1752,7 @@
       </c>
       <c r="F18" s="50">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.28455284552845528</v>
       </c>
       <c r="G18" s="5"/>
       <c r="T18" s="5"/>
@@ -1758,8 +1764,7 @@
         <v>16</v>
       </c>
       <c r="D19" s="39">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E19" s="50">
         <f>IF(Справочники!$O$1=1,Справочники!$C20,  IF(Справочники!$O$1=2,Справочники!$D20,  IF(Справочники!$O$1=3,Справочники!$E20,  IF(Справочники!$O$1=4,Справочники!$F20, IF(Справочники!$O$1=5,Справочники!$G20, IF(Справочники!$O$1=6,Справочники!$H20,
@@ -1769,7 +1774,7 @@
       </c>
       <c r="F19" s="50">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.6910569105691054E-2</v>
       </c>
       <c r="G19" s="5"/>
       <c r="T19" s="5"/>
@@ -1782,7 +1787,7 @@
       </c>
       <c r="D20" s="39">
         <f t="array" ref="D20">SUM(ROUND(D8:D19,0))</f>
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="E20" s="51">
         <f>E8+E9+E10+E11+E12+E14+E13+E15+E16+E17+E18+E19</f>
@@ -1838,7 +1843,7 @@
         <v>0.5</v>
       </c>
       <c r="F22" s="52">
-        <f t="shared" ref="F22:F23" si="2">D22/$D$24</f>
+        <f t="shared" ref="F22:F23" si="1">D22/$D$24</f>
         <v>0.5</v>
       </c>
       <c r="G22" s="5"/>
@@ -1861,7 +1866,7 @@
         <v>0.4</v>
       </c>
       <c r="F23" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
       <c r="G23" s="5"/>
@@ -1896,7 +1901,7 @@
       </c>
       <c r="D25" s="29">
         <f>D20+D24</f>
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="E25" s="27"/>
       <c r="F25" s="27"/>
@@ -2984,7 +2989,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="216.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2995,6 +3000,7 @@
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="39.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3088,7 +3094,7 @@
         <v>83</v>
       </c>
       <c r="D9" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E9" s="4">
         <v>496</v>
@@ -3108,7 +3114,7 @@
         <v>23</v>
       </c>
       <c r="D10" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E10" s="4">
         <v>497</v>
@@ -3128,7 +3134,7 @@
         <v>84</v>
       </c>
       <c r="D11" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" s="4">
         <v>498</v>
@@ -3147,8 +3153,8 @@
       <c r="C12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="4">
-        <v>0</v>
+      <c r="D12" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="E12" s="4">
         <v>499</v>
@@ -3168,7 +3174,7 @@
         <v>85</v>
       </c>
       <c r="D13" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E13" s="4">
         <v>500</v>
@@ -3188,7 +3194,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E14" s="4">
         <v>501</v>
@@ -3207,8 +3213,8 @@
       <c r="C15" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="4">
-        <v>9</v>
+      <c r="D15" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="E15" s="4">
         <v>502</v>
@@ -3228,7 +3234,7 @@
         <v>87</v>
       </c>
       <c r="D16" s="4">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E16" s="4">
         <v>503</v>
@@ -3248,7 +3254,7 @@
         <v>88</v>
       </c>
       <c r="D17" s="4">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E17" s="4">
         <v>504</v>
@@ -3268,7 +3274,7 @@
         <v>89</v>
       </c>
       <c r="D18" s="4">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E18" s="4">
         <v>505</v>
@@ -3287,8 +3293,8 @@
       <c r="C19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="4">
-        <v>2</v>
+      <c r="D19" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="E19" s="4">
         <v>506</v>
@@ -3302,9 +3308,7 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="4" t="s">
-        <v>95</v>
-      </c>
+      <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -3316,9 +3320,7 @@
       <c r="C21" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D21" s="4">
-        <v>8</v>
-      </c>
+      <c r="D21" s="4"/>
       <c r="E21" s="4">
         <v>508</v>
       </c>
@@ -3337,7 +3339,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="4">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E22" s="4">
         <v>509</v>
@@ -3357,7 +3359,7 @@
         <v>91</v>
       </c>
       <c r="D23" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E23" s="4">
         <v>510</v>
@@ -3391,7 +3393,7 @@
         <v>34</v>
       </c>
       <c r="D26" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E26" s="4">
         <v>511</v>
@@ -3588,12 +3590,12 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{676BF1D7-A4D9-4478-A8BA-91CF146DE1C8}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>

--- a/Расшифровка ЭО BIQ5257.xlsx
+++ b/Расшифровка ЭО BIQ5257.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Эрнест\Desktop\УЧЕБА\Диплом\20191128\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Эрнест\Desktop\УЧЕБА\Диплом\20191203\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8535" tabRatio="735" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="8535" tabRatio="735"/>
   </bookViews>
   <sheets>
     <sheet name="Оценка" sheetId="25" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="104">
   <si>
     <t>Разработка</t>
   </si>
@@ -354,29 +354,38 @@
     <t>Номер задачи</t>
   </si>
   <si>
-    <t>Аналит1</t>
-  </si>
-  <si>
-    <t>Аналит2</t>
-  </si>
-  <si>
-    <t>Разраб1</t>
-  </si>
-  <si>
-    <t>3;2#НН</t>
-  </si>
-  <si>
-    <t>4;6#ОО</t>
-  </si>
-  <si>
-    <t>10;4#ОО</t>
+    <t>Собственная разработка</t>
+  </si>
+  <si>
+    <t>0#НН;6#ОО</t>
+  </si>
+  <si>
+    <t>Оценка тестировщика</t>
+  </si>
+  <si>
+    <t>Управление задачей, Согласование ФТ на смежные системы</t>
+  </si>
+  <si>
+    <t>Часы</t>
+  </si>
+  <si>
+    <t>6;14#НО</t>
+  </si>
+  <si>
+    <t>0#НН;10#ОО</t>
+  </si>
+  <si>
+    <t>12;10#ОО</t>
+  </si>
+  <si>
+    <t>Проценты</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -489,8 +498,20 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -569,8 +590,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -656,11 +689,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="justify"/>
@@ -863,6 +909,23 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="justify"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -897,7 +960,44 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1043,14 +1143,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="B7:F26" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="B7:F26"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Наименование работы в оценке" dataDxfId="4"/>
-    <tableColumn id="2" name="Наименование работы в MS Project" dataDxfId="3"/>
-    <tableColumn id="3" name="Предшественники" dataDxfId="2"/>
-    <tableColumn id="4" name="Тип Работы" dataDxfId="1"/>
-    <tableColumn id="5" name="Исполнители" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="B7:H26" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="B7:H26"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Наименование работы в оценке" dataDxfId="6"/>
+    <tableColumn id="2" name="Наименование работы в MS Project" dataDxfId="5"/>
+    <tableColumn id="3" name="Предшественники" dataDxfId="4"/>
+    <tableColumn id="4" name="Тип Работы" dataDxfId="3"/>
+    <tableColumn id="5" name="Исполнители" dataDxfId="2">
+      <calculatedColumnFormula>CONCATENATE("Аналит1[",Таблица1[[#This Row],[Проценты]]," %]")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="Часы" dataDxfId="1">
+      <calculatedColumnFormula>Оценка!D8</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="Проценты" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1345,8 +1451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1431,11 +1537,11 @@
       <c r="S6" s="5"/>
     </row>
     <row r="7" spans="1:20" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
       <c r="D7" s="22" t="s">
         <v>51</v>
       </c>
@@ -1452,7 +1558,7 @@
       <c r="S7" s="5"/>
     </row>
     <row r="8" spans="1:20" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="77" t="s">
+      <c r="A8" s="84" t="s">
         <v>53</v>
       </c>
       <c r="B8" s="12" t="s">
@@ -1484,8 +1590,8 @@
       <c r="S8" s="5"/>
     </row>
     <row r="9" spans="1:20" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="77"/>
-      <c r="B9" s="75" t="s">
+      <c r="A9" s="84"/>
+      <c r="B9" s="82" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="69" t="s">
@@ -1514,8 +1620,8 @@
       <c r="S9" s="5"/>
     </row>
     <row r="10" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="77"/>
-      <c r="B10" s="75"/>
+      <c r="A10" s="84"/>
+      <c r="B10" s="82"/>
       <c r="C10" s="30" t="s">
         <v>23</v>
       </c>
@@ -1542,8 +1648,8 @@
       <c r="S10" s="5"/>
     </row>
     <row r="11" spans="1:20" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="77"/>
-      <c r="B11" s="75" t="s">
+      <c r="A11" s="84"/>
+      <c r="B11" s="82" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="69" t="s">
@@ -1573,8 +1679,8 @@
       <c r="T11" s="5"/>
     </row>
     <row r="12" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="77"/>
-      <c r="B12" s="75"/>
+      <c r="A12" s="84"/>
+      <c r="B12" s="82"/>
       <c r="C12" s="30" t="s">
         <v>6</v>
       </c>
@@ -1597,8 +1703,8 @@
       <c r="T12" s="5"/>
     </row>
     <row r="13" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="77"/>
-      <c r="B13" s="75" t="s">
+      <c r="A13" s="84"/>
+      <c r="B13" s="82" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="30" t="s">
@@ -1623,13 +1729,13 @@
       </c>
       <c r="I13" s="41">
         <f>D26/8</f>
-        <v>62.5</v>
+        <v>6.25</v>
       </c>
       <c r="T13" s="5"/>
     </row>
     <row r="14" spans="1:20" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="77"/>
-      <c r="B14" s="75"/>
+      <c r="A14" s="84"/>
+      <c r="B14" s="82"/>
       <c r="C14" s="69" t="s">
         <v>7</v>
       </c>
@@ -1657,8 +1763,8 @@
       <c r="T14" s="5"/>
     </row>
     <row r="15" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="77"/>
-      <c r="B15" s="75" t="s">
+      <c r="A15" s="84"/>
+      <c r="B15" s="82" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="30" t="s">
@@ -1683,13 +1789,13 @@
       </c>
       <c r="I15" s="18">
         <f>I13*I14</f>
-        <v>1620000</v>
+        <v>162000</v>
       </c>
       <c r="T15" s="5"/>
     </row>
     <row r="16" spans="1:20" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="77"/>
-      <c r="B16" s="75"/>
+      <c r="A16" s="84"/>
+      <c r="B16" s="82"/>
       <c r="C16" s="30" t="s">
         <v>30</v>
       </c>
@@ -1710,7 +1816,7 @@
       <c r="T16" s="5"/>
     </row>
     <row r="17" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="77"/>
+      <c r="A17" s="84"/>
       <c r="B17" s="12" t="s">
         <v>31</v>
       </c>
@@ -1734,8 +1840,8 @@
       <c r="T17" s="5"/>
     </row>
     <row r="18" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="77"/>
-      <c r="B18" s="75" t="s">
+      <c r="A18" s="84"/>
+      <c r="B18" s="82" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="30" t="s">
@@ -1758,8 +1864,8 @@
       <c r="T18" s="5"/>
     </row>
     <row r="19" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="77"/>
-      <c r="B19" s="75"/>
+      <c r="A19" s="84"/>
+      <c r="B19" s="82"/>
       <c r="C19" s="30" t="s">
         <v>16</v>
       </c>
@@ -1780,7 +1886,7 @@
       <c r="T19" s="5"/>
     </row>
     <row r="20" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="77"/>
+      <c r="A20" s="84"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9" t="s">
         <v>48</v>
@@ -1801,10 +1907,10 @@
       <c r="T20" s="5"/>
     </row>
     <row r="21" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="76" t="s">
+      <c r="A21" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="83" t="s">
         <v>36</v>
       </c>
       <c r="C21" s="31" t="s">
@@ -1828,8 +1934,8 @@
       <c r="T21" s="5"/>
     </row>
     <row r="22" spans="1:20" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="76"/>
-      <c r="B22" s="76"/>
+      <c r="A22" s="83"/>
+      <c r="B22" s="83"/>
       <c r="C22" s="69" t="s">
         <v>37</v>
       </c>
@@ -1850,8 +1956,8 @@
       <c r="T22" s="5"/>
     </row>
     <row r="23" spans="1:20" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="76"/>
-      <c r="B23" s="76"/>
+      <c r="A23" s="83"/>
+      <c r="B23" s="83"/>
       <c r="C23" s="31" t="s">
         <v>38</v>
       </c>
@@ -1873,7 +1979,7 @@
       <c r="T23" s="5"/>
     </row>
     <row r="24" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="76"/>
+      <c r="A24" s="83"/>
       <c r="B24" s="10"/>
       <c r="C24" s="33" t="s">
         <v>47</v>
@@ -1916,7 +2022,7 @@
         <v>34</v>
       </c>
       <c r="D26" s="37">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="E26" s="14"/>
       <c r="F26" s="6"/>
@@ -2117,52 +2223,52 @@
       <c r="B6" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="78" t="s">
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="78"/>
-      <c r="N6" s="78"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="85"/>
+      <c r="N6" s="85"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="45"/>
       <c r="B7" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="78" t="s">
+      <c r="C7" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78" t="s">
+      <c r="D7" s="85"/>
+      <c r="E7" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78" t="s">
+      <c r="F7" s="85"/>
+      <c r="G7" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78" t="s">
+      <c r="H7" s="85"/>
+      <c r="I7" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="78"/>
-      <c r="K7" s="78" t="s">
+      <c r="J7" s="85"/>
+      <c r="K7" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="L7" s="78"/>
-      <c r="M7" s="78" t="s">
+      <c r="L7" s="85"/>
+      <c r="M7" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="N7" s="78"/>
+      <c r="N7" s="85"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="45"/>
@@ -2251,7 +2357,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="83" t="s">
+      <c r="A10" s="90" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="59" t="s">
@@ -2295,7 +2401,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="83"/>
+      <c r="A11" s="90"/>
       <c r="B11" s="59" t="s">
         <v>23</v>
       </c>
@@ -2337,7 +2443,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="83" t="s">
+      <c r="A12" s="90" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="59" t="s">
@@ -2381,7 +2487,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="83"/>
+      <c r="A13" s="90"/>
       <c r="B13" s="59" t="s">
         <v>6</v>
       </c>
@@ -2423,7 +2529,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="83" t="s">
+      <c r="A14" s="90" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="59" t="s">
@@ -2467,7 +2573,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="83"/>
+      <c r="A15" s="90"/>
       <c r="B15" s="59" t="s">
         <v>7</v>
       </c>
@@ -2509,7 +2615,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="83" t="s">
+      <c r="A16" s="90" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="59" t="s">
@@ -2553,7 +2659,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="83"/>
+      <c r="A17" s="90"/>
       <c r="B17" s="59" t="s">
         <v>30</v>
       </c>
@@ -2639,7 +2745,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="83" t="s">
+      <c r="A19" s="90" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="59" t="s">
@@ -2683,7 +2789,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="83"/>
+      <c r="A20" s="90"/>
       <c r="B20" s="59" t="s">
         <v>16</v>
       </c>
@@ -2779,7 +2885,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="82" t="s">
+      <c r="A22" s="89" t="s">
         <v>36</v>
       </c>
       <c r="B22" s="56" t="s">
@@ -2823,7 +2929,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="82"/>
+      <c r="A23" s="89"/>
       <c r="B23" s="56" t="s">
         <v>37</v>
       </c>
@@ -2865,7 +2971,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="82"/>
+      <c r="A24" s="89"/>
       <c r="B24" s="56" t="s">
         <v>38</v>
       </c>
@@ -2986,67 +3092,69 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="216.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
     <col min="2" max="2" width="61.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.28515625" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="39.42578125" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="76" t="s">
         <v>94</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -3064,348 +3172,520 @@
       <c r="F7" s="4" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="G7" s="74" t="s">
+        <v>99</v>
+      </c>
+      <c r="H7" s="74" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="79">
+        <v>0</v>
+      </c>
+      <c r="B8" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4">
+      <c r="D8" s="78"/>
+      <c r="E8" s="77">
         <v>495</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="77" t="str">
+        <f>CONCATENATE("Аналит1[",Таблица1[[#This Row],[Проценты]]," %]")</f>
+        <v>Аналит1[15 %]</v>
+      </c>
+      <c r="G8" s="75">
+        <f>Оценка!D8</f>
+        <v>16</v>
+      </c>
+      <c r="H8" s="74">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="80">
+        <v>1</v>
+      </c>
+      <c r="B9" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="77">
+        <f>A8</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="77">
+        <v>496</v>
+      </c>
+      <c r="F9" s="77" t="str">
+        <f>CONCATENATE("Аналит1[",Таблица1[[#This Row],[Проценты]]," %]")</f>
+        <v>Аналит1[5 %]</v>
+      </c>
+      <c r="G9" s="75">
+        <f>Оценка!D9</f>
+        <v>5</v>
+      </c>
+      <c r="H9" s="74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="79">
+        <v>2</v>
+      </c>
+      <c r="B10" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="77">
+        <f>A9</f>
+        <v>1</v>
+      </c>
+      <c r="E10" s="77">
+        <v>497</v>
+      </c>
+      <c r="F10" s="77" t="str">
+        <f>CONCATENATE("Аналит1[",Таблица1[[#This Row],[Проценты]]," %]")</f>
+        <v>Аналит1[5 %]</v>
+      </c>
+      <c r="G10" s="75">
+        <f>Оценка!D10</f>
+        <v>5</v>
+      </c>
+      <c r="H10" s="74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="80">
+        <v>3</v>
+      </c>
+      <c r="B11" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="77">
+        <f t="shared" ref="D11:D14" si="0">A10</f>
+        <v>2</v>
+      </c>
+      <c r="E11" s="77">
+        <v>498</v>
+      </c>
+      <c r="F11" s="77" t="str">
+        <f>CONCATENATE("Аналит1[",Таблица1[[#This Row],[Проценты]]," %]")</f>
+        <v>Аналит1[10 %]</v>
+      </c>
+      <c r="G11" s="75">
+        <f>Оценка!D11</f>
+        <v>9</v>
+      </c>
+      <c r="H11" s="74">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="79">
+        <v>4</v>
+      </c>
+      <c r="B12" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="77">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E12" s="77">
+        <v>499</v>
+      </c>
+      <c r="F12" s="77" t="str">
+        <f>CONCATENATE("Аналит1[",Таблица1[[#This Row],[Проценты]]," %]")</f>
+        <v>Аналит1[5 %]</v>
+      </c>
+      <c r="G12" s="75">
+        <f>Оценка!D12</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="80">
+        <v>5</v>
+      </c>
+      <c r="B13" s="77" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="77" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="77">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E13" s="77">
+        <v>500</v>
+      </c>
+      <c r="F13" s="77" t="str">
+        <f>CONCATENATE("Аналит1[",Таблица1[[#This Row],[Проценты]]," %]")</f>
+        <v>Аналит1[5 %]</v>
+      </c>
+      <c r="G13" s="75">
+        <f>Оценка!D13</f>
+        <v>2</v>
+      </c>
+      <c r="H13" s="74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="79">
+        <v>6</v>
+      </c>
+      <c r="B14" s="77" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="77" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="77">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E14" s="77">
+        <v>501</v>
+      </c>
+      <c r="F14" s="77" t="str">
+        <f>CONCATENATE("Аналит1[",Таблица1[[#This Row],[Проценты]]," %]")</f>
+        <v>Аналит1[10 %]</v>
+      </c>
+      <c r="G14" s="75">
+        <f>Оценка!D14</f>
+        <v>5</v>
+      </c>
+      <c r="H14" s="74">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="80">
+        <v>7</v>
+      </c>
+      <c r="B15" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="77" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="77">
+        <v>502</v>
+      </c>
+      <c r="F15" s="77" t="str">
+        <f>CONCATENATE("Аналит1[",Таблица1[[#This Row],[Проценты]]," %]")</f>
+        <v>Аналит1[10 %]</v>
+      </c>
+      <c r="G15" s="75">
+        <f>Оценка!D15</f>
+        <v>15</v>
+      </c>
+      <c r="H15" s="74">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="79">
+        <v>8</v>
+      </c>
+      <c r="B16" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="77">
+        <v>14</v>
+      </c>
+      <c r="E16" s="77">
+        <v>504</v>
+      </c>
+      <c r="F16" s="77" t="str">
+        <f>CONCATENATE("Аналит1[",Таблица1[[#This Row],[Проценты]]," %]")</f>
+        <v>Аналит1[5 %]</v>
+      </c>
+      <c r="G16" s="75">
+        <f>Оценка!D17</f>
+        <v>24</v>
+      </c>
+      <c r="H16" s="74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="80">
+        <v>9</v>
+      </c>
+      <c r="B17" s="77" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="77" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="78" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="77">
+        <v>505</v>
+      </c>
+      <c r="F17" s="77" t="str">
+        <f>CONCATENATE("Аналит1[",Таблица1[[#This Row],[Проценты]]," %]")</f>
+        <v>Аналит1[15 %]</v>
+      </c>
+      <c r="G17" s="75">
+        <f>Оценка!D18</f>
+        <v>35</v>
+      </c>
+      <c r="H17" s="74">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="79">
+        <v>10</v>
+      </c>
+      <c r="B18" s="77" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="77" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="77">
+        <v>8</v>
+      </c>
+      <c r="E18" s="77">
+        <v>506</v>
+      </c>
+      <c r="F18" s="77" t="str">
+        <f>CONCATENATE("Аналит1[",Таблица1[[#This Row],[Проценты]]," %]")</f>
+        <v>Аналит1[5 %]</v>
+      </c>
+      <c r="G18" s="75">
+        <f>Оценка!D19</f>
+        <v>7</v>
+      </c>
+      <c r="H18" s="74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="80">
+        <v>11</v>
+      </c>
+      <c r="B19" s="77"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="74"/>
+    </row>
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="79"/>
+      <c r="B20" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="78" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" s="77">
+        <v>508</v>
+      </c>
+      <c r="F20" s="77" t="str">
+        <f>CONCATENATE("Аналит1[",Таблица1[[#This Row],[Проценты]]," %]")</f>
+        <v>Аналит1[34 %]</v>
+      </c>
+      <c r="G20" s="75">
+        <f>Оценка!D21</f>
+        <v>8</v>
+      </c>
+      <c r="H20" s="74">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="80">
+        <v>12</v>
+      </c>
+      <c r="B21" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="77" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
-        <v>496</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="4">
-        <v>1</v>
-      </c>
-      <c r="E10" s="4">
-        <v>497</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>3</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" s="4">
-        <v>2</v>
-      </c>
-      <c r="E11" s="4">
-        <v>498</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>4</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="D21" s="77">
         <v>6</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="E21" s="77">
+        <v>509</v>
+      </c>
+      <c r="F21" s="77" t="str">
+        <f>CONCATENATE("Аналит1[",Таблица1[[#This Row],[Проценты]]," %]")</f>
+        <v>Аналит1[33 %]</v>
+      </c>
+      <c r="G21" s="75">
+        <f>Оценка!D22</f>
+        <v>40</v>
+      </c>
+      <c r="H21" s="74">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="79">
+        <v>13</v>
+      </c>
+      <c r="B22" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="77" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" s="77">
+        <v>510</v>
+      </c>
+      <c r="F22" s="77" t="str">
+        <f>CONCATENATE("Аналит1[",Таблица1[[#This Row],[Проценты]]," %]")</f>
+        <v>Аналит1[33 %]</v>
+      </c>
+      <c r="G22" s="75">
+        <f>Оценка!D23</f>
+        <v>32</v>
+      </c>
+      <c r="H22" s="74">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="80">
+        <v>14</v>
+      </c>
+      <c r="B23" s="77" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="77">
+        <v>12</v>
+      </c>
+      <c r="E23" s="77">
+        <v>503</v>
+      </c>
+      <c r="F23" s="77" t="str">
+        <f>CONCATENATE("Аналит1[",Таблица1[[#This Row],[Проценты]]," %]")</f>
+        <v>Аналит1[10 %]</v>
+      </c>
+      <c r="G23" s="75">
+        <f>Оценка!D16</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="74">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="79">
+        <v>15</v>
+      </c>
+      <c r="B24" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="77">
+        <v>14</v>
+      </c>
+      <c r="E24" s="77">
+        <v>512</v>
+      </c>
+      <c r="F24" s="77" t="str">
+        <f>CONCATENATE("Аналит1[",Таблица1[[#This Row],[Проценты]]," %]")</f>
+        <v>Аналит1[100 %]</v>
+      </c>
+      <c r="G24" s="75">
+        <v>30</v>
+      </c>
+      <c r="H24" s="74">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="80"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="74"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="79">
+        <v>16</v>
+      </c>
+      <c r="B26" s="77" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="77">
         <v>6</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E12" s="4">
-        <v>499</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>5</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" s="4">
-        <v>4</v>
-      </c>
-      <c r="E13" s="4">
-        <v>500</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>6</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="4">
-        <v>5</v>
-      </c>
-      <c r="E14" s="4">
-        <v>501</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>7</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E15" s="4">
-        <v>502</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>8</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D16" s="4">
-        <v>7</v>
-      </c>
-      <c r="E16" s="4">
-        <v>503</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>9</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D17" s="4">
-        <v>8</v>
-      </c>
-      <c r="E17" s="4">
-        <v>504</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>10</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D18" s="4">
-        <v>9</v>
-      </c>
-      <c r="E18" s="4">
-        <v>505</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>11</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="4" t="s">
+      <c r="E26" s="77">
+        <v>511</v>
+      </c>
+      <c r="F26" s="77" t="str">
+        <f>CONCATENATE("Аналит1[",Таблица1[[#This Row],[Проценты]]," %]")</f>
+        <v>Аналит1[100 %]</v>
+      </c>
+      <c r="G26" s="75">
+        <f>Оценка!D26</f>
+        <v>50</v>
+      </c>
+      <c r="H26" s="74">
         <v>100</v>
-      </c>
-      <c r="E19" s="4">
-        <v>506</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>12</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4">
-        <v>508</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>13</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="4">
-        <v>12</v>
-      </c>
-      <c r="E22" s="4">
-        <v>509</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>14</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D23" s="4">
-        <v>13</v>
-      </c>
-      <c r="E23" s="4">
-        <v>510</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>15</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="4">
-        <v>14</v>
-      </c>
-      <c r="E26" s="4">
-        <v>511</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="G16:G24" calculatedColumn="1"/>
+  </ignoredErrors>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">

--- a/Расшифровка ЭО BIQ5257.xlsx
+++ b/Расшифровка ЭО BIQ5257.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Эрнест\Desktop\УЧЕБА\Диплом\20191203\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\info\Эрнест\20191217\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="8535" tabRatio="735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="8535" tabRatio="735" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Оценка" sheetId="25" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="110">
   <si>
     <t>Разработка</t>
   </si>
@@ -357,9 +357,6 @@
     <t>Собственная разработка</t>
   </si>
   <si>
-    <t>0#НН;6#ОО</t>
-  </si>
-  <si>
     <t>Оценка тестировщика</t>
   </si>
   <si>
@@ -372,13 +369,34 @@
     <t>6;14#НО</t>
   </si>
   <si>
-    <t>0#НН;10#ОО</t>
-  </si>
-  <si>
     <t>12;10#ОО</t>
   </si>
   <si>
     <t>Проценты</t>
+  </si>
+  <si>
+    <t>12;16</t>
+  </si>
+  <si>
+    <t>6#ОО;0#НН</t>
+  </si>
+  <si>
+    <t>10#ОО;0#НН</t>
+  </si>
+  <si>
+    <t>Исполнитель</t>
+  </si>
+  <si>
+    <t>Аналит1</t>
+  </si>
+  <si>
+    <t>Аналит2</t>
+  </si>
+  <si>
+    <t>Аналит3</t>
+  </si>
+  <si>
+    <t>Аналит4</t>
   </si>
 </sst>
 </file>
@@ -938,6 +956,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -949,18 +973,30 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1143,20 +1179,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="B7:H26" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="B7:H26"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="Наименование работы в оценке" dataDxfId="6"/>
-    <tableColumn id="2" name="Наименование работы в MS Project" dataDxfId="5"/>
-    <tableColumn id="3" name="Предшественники" dataDxfId="4"/>
-    <tableColumn id="4" name="Тип Работы" dataDxfId="3"/>
-    <tableColumn id="5" name="Исполнители" dataDxfId="2">
-      <calculatedColumnFormula>CONCATENATE("Аналит1[",Таблица1[[#This Row],[Проценты]]," %]")</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="B7:I24" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="B7:I24"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Наименование работы в оценке" dataDxfId="7"/>
+    <tableColumn id="2" name="Наименование работы в MS Project" dataDxfId="6"/>
+    <tableColumn id="3" name="Предшественники" dataDxfId="5"/>
+    <tableColumn id="4" name="Тип Работы" dataDxfId="4"/>
+    <tableColumn id="5" name="Исполнители" dataDxfId="3">
+      <calculatedColumnFormula>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Часы" dataDxfId="1">
+    <tableColumn id="6" name="Часы" dataDxfId="2">
       <calculatedColumnFormula>Оценка!D8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Проценты" dataDxfId="0"/>
+    <tableColumn id="7" name="Проценты" dataDxfId="1"/>
+    <tableColumn id="8" name="Исполнитель" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1451,7 +1488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -2223,52 +2260,52 @@
       <c r="B6" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="86" t="s">
+      <c r="C6" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="85" t="s">
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="J6" s="85"/>
-      <c r="K6" s="85"/>
-      <c r="L6" s="85"/>
-      <c r="M6" s="85"/>
-      <c r="N6" s="85"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="87"/>
+      <c r="N6" s="87"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="45"/>
       <c r="B7" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="85" t="s">
+      <c r="C7" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85" t="s">
+      <c r="D7" s="87"/>
+      <c r="E7" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85" t="s">
+      <c r="F7" s="87"/>
+      <c r="G7" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="H7" s="85"/>
-      <c r="I7" s="85" t="s">
+      <c r="H7" s="87"/>
+      <c r="I7" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="85"/>
-      <c r="K7" s="85" t="s">
+      <c r="J7" s="87"/>
+      <c r="K7" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="L7" s="85"/>
-      <c r="M7" s="85" t="s">
+      <c r="L7" s="87"/>
+      <c r="M7" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="N7" s="85"/>
+      <c r="N7" s="87"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="45"/>
@@ -2357,7 +2394,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="90" t="s">
+      <c r="A10" s="86" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="59" t="s">
@@ -2401,7 +2438,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="90"/>
+      <c r="A11" s="86"/>
       <c r="B11" s="59" t="s">
         <v>23</v>
       </c>
@@ -2443,7 +2480,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="90" t="s">
+      <c r="A12" s="86" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="59" t="s">
@@ -2487,7 +2524,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="90"/>
+      <c r="A13" s="86"/>
       <c r="B13" s="59" t="s">
         <v>6</v>
       </c>
@@ -2529,7 +2566,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="90" t="s">
+      <c r="A14" s="86" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="59" t="s">
@@ -2573,7 +2610,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="90"/>
+      <c r="A15" s="86"/>
       <c r="B15" s="59" t="s">
         <v>7</v>
       </c>
@@ -2615,7 +2652,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="90" t="s">
+      <c r="A16" s="86" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="59" t="s">
@@ -2659,7 +2696,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="90"/>
+      <c r="A17" s="86"/>
       <c r="B17" s="59" t="s">
         <v>30</v>
       </c>
@@ -2745,7 +2782,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="90" t="s">
+      <c r="A19" s="86" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="59" t="s">
@@ -2789,7 +2826,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="90"/>
+      <c r="A20" s="86"/>
       <c r="B20" s="59" t="s">
         <v>16</v>
       </c>
@@ -2885,7 +2922,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="89" t="s">
+      <c r="A22" s="85" t="s">
         <v>36</v>
       </c>
       <c r="B22" s="56" t="s">
@@ -2929,7 +2966,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="89"/>
+      <c r="A23" s="85"/>
       <c r="B23" s="56" t="s">
         <v>37</v>
       </c>
@@ -2971,7 +3008,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="89"/>
+      <c r="A24" s="85"/>
       <c r="B24" s="56" t="s">
         <v>38</v>
       </c>
@@ -3070,12 +3107,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A19:A20"/>
     <mergeCell ref="I6:N6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
@@ -3084,6 +3115,12 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="C6:H6"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A19:A20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3092,10 +3129,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="216.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3111,49 +3148,49 @@
     <col min="9" max="9" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="76" t="s">
         <v>94</v>
       </c>
@@ -3173,13 +3210,16 @@
         <v>81</v>
       </c>
       <c r="G7" s="74" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H7" s="74" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="I7" s="74" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="79">
         <v>0</v>
       </c>
@@ -3194,7 +3234,7 @@
         <v>495</v>
       </c>
       <c r="F8" s="77" t="str">
-        <f>CONCATENATE("Аналит1[",Таблица1[[#This Row],[Проценты]]," %]")</f>
+        <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
         <v>Аналит1[15 %]</v>
       </c>
       <c r="G8" s="75">
@@ -3204,8 +3244,11 @@
       <c r="H8" s="74">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="74" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="80">
         <v>1</v>
       </c>
@@ -3223,7 +3266,7 @@
         <v>496</v>
       </c>
       <c r="F9" s="77" t="str">
-        <f>CONCATENATE("Аналит1[",Таблица1[[#This Row],[Проценты]]," %]")</f>
+        <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
         <v>Аналит1[5 %]</v>
       </c>
       <c r="G9" s="75">
@@ -3233,8 +3276,11 @@
       <c r="H9" s="74">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="74" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="79">
         <v>2</v>
       </c>
@@ -3252,7 +3298,7 @@
         <v>497</v>
       </c>
       <c r="F10" s="77" t="str">
-        <f>CONCATENATE("Аналит1[",Таблица1[[#This Row],[Проценты]]," %]")</f>
+        <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
         <v>Аналит1[5 %]</v>
       </c>
       <c r="G10" s="75">
@@ -3262,8 +3308,11 @@
       <c r="H10" s="74">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="74" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="80">
         <v>3</v>
       </c>
@@ -3281,7 +3330,7 @@
         <v>498</v>
       </c>
       <c r="F11" s="77" t="str">
-        <f>CONCATENATE("Аналит1[",Таблица1[[#This Row],[Проценты]]," %]")</f>
+        <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
         <v>Аналит1[10 %]</v>
       </c>
       <c r="G11" s="75">
@@ -3291,8 +3340,11 @@
       <c r="H11" s="74">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="74" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="79">
         <v>4</v>
       </c>
@@ -3310,7 +3362,7 @@
         <v>499</v>
       </c>
       <c r="F12" s="77" t="str">
-        <f>CONCATENATE("Аналит1[",Таблица1[[#This Row],[Проценты]]," %]")</f>
+        <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
         <v>Аналит1[5 %]</v>
       </c>
       <c r="G12" s="75">
@@ -3320,8 +3372,11 @@
       <c r="H12" s="74">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="74" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="80">
         <v>5</v>
       </c>
@@ -3339,7 +3394,7 @@
         <v>500</v>
       </c>
       <c r="F13" s="77" t="str">
-        <f>CONCATENATE("Аналит1[",Таблица1[[#This Row],[Проценты]]," %]")</f>
+        <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
         <v>Аналит1[5 %]</v>
       </c>
       <c r="G13" s="75">
@@ -3349,8 +3404,11 @@
       <c r="H13" s="74">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="74" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="79">
         <v>6</v>
       </c>
@@ -3368,7 +3426,7 @@
         <v>501</v>
       </c>
       <c r="F14" s="77" t="str">
-        <f>CONCATENATE("Аналит1[",Таблица1[[#This Row],[Проценты]]," %]")</f>
+        <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
         <v>Аналит1[10 %]</v>
       </c>
       <c r="G14" s="75">
@@ -3378,8 +3436,11 @@
       <c r="H14" s="74">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I14" s="74" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="80">
         <v>7</v>
       </c>
@@ -3390,13 +3451,13 @@
         <v>86</v>
       </c>
       <c r="D15" s="77" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E15" s="77">
         <v>502</v>
       </c>
       <c r="F15" s="77" t="str">
-        <f>CONCATENATE("Аналит1[",Таблица1[[#This Row],[Проценты]]," %]")</f>
+        <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
         <v>Аналит1[10 %]</v>
       </c>
       <c r="G15" s="75">
@@ -3406,8 +3467,11 @@
       <c r="H15" s="74">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="74" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="79">
         <v>8</v>
       </c>
@@ -3424,7 +3488,7 @@
         <v>504</v>
       </c>
       <c r="F16" s="77" t="str">
-        <f>CONCATENATE("Аналит1[",Таблица1[[#This Row],[Проценты]]," %]")</f>
+        <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
         <v>Аналит1[5 %]</v>
       </c>
       <c r="G16" s="75">
@@ -3434,25 +3498,28 @@
       <c r="H16" s="74">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="74" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="80">
         <v>9</v>
       </c>
       <c r="B17" s="77" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C17" s="77" t="s">
         <v>89</v>
       </c>
       <c r="D17" s="78" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E17" s="77">
         <v>505</v>
       </c>
       <c r="F17" s="77" t="str">
-        <f>CONCATENATE("Аналит1[",Таблица1[[#This Row],[Проценты]]," %]")</f>
+        <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
         <v>Аналит1[15 %]</v>
       </c>
       <c r="G17" s="75">
@@ -3462,8 +3529,11 @@
       <c r="H17" s="74">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="74" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="79">
         <v>10</v>
       </c>
@@ -3480,7 +3550,7 @@
         <v>506</v>
       </c>
       <c r="F18" s="77" t="str">
-        <f>CONCATENATE("Аналит1[",Таблица1[[#This Row],[Проценты]]," %]")</f>
+        <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
         <v>Аналит1[5 %]</v>
       </c>
       <c r="G18" s="75">
@@ -3490,199 +3560,198 @@
       <c r="H18" s="74">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="74" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="80">
         <v>11</v>
       </c>
-      <c r="B19" s="77"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="74"/>
-    </row>
-    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="79"/>
-      <c r="B20" s="77" t="s">
+      <c r="B19" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="77" t="s">
+      <c r="C19" s="77" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="78" t="s">
-        <v>96</v>
-      </c>
-      <c r="E20" s="77">
+      <c r="D19" s="78" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="77">
         <v>508</v>
       </c>
-      <c r="F20" s="77" t="str">
-        <f>CONCATENATE("Аналит1[",Таблица1[[#This Row],[Проценты]]," %]")</f>
-        <v>Аналит1[34 %]</v>
-      </c>
-      <c r="G20" s="75">
+      <c r="F19" s="77" t="str">
+        <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
+        <v>Аналит2</v>
+      </c>
+      <c r="G19" s="75">
         <f>Оценка!D21</f>
         <v>8</v>
       </c>
-      <c r="H20" s="74">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="80">
+      <c r="H19" s="74"/>
+      <c r="I19" s="74" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="80">
         <v>12</v>
       </c>
-      <c r="B21" s="77" t="s">
+      <c r="B20" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="77" t="s">
+      <c r="C20" s="77" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="77">
+      <c r="D20" s="77">
         <v>6</v>
       </c>
-      <c r="E21" s="77">
+      <c r="E20" s="77">
         <v>509</v>
       </c>
-      <c r="F21" s="77" t="str">
-        <f>CONCATENATE("Аналит1[",Таблица1[[#This Row],[Проценты]]," %]")</f>
-        <v>Аналит1[33 %]</v>
-      </c>
-      <c r="G21" s="75">
+      <c r="F20" s="77" t="str">
+        <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
+        <v>Аналит2[33 %]</v>
+      </c>
+      <c r="G20" s="75">
         <f>Оценка!D22</f>
         <v>40</v>
       </c>
+      <c r="H20" s="74">
+        <v>33</v>
+      </c>
+      <c r="I20" s="74" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="79">
+        <v>13</v>
+      </c>
+      <c r="B21" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="77" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="77" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="77">
+        <v>510</v>
+      </c>
+      <c r="F21" s="77" t="str">
+        <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
+        <v>Аналит1[33 %]</v>
+      </c>
+      <c r="G21" s="75">
+        <f>Оценка!D23</f>
+        <v>32</v>
+      </c>
       <c r="H21" s="74">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="79">
-        <v>13</v>
+      <c r="I21" s="74" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="80">
+        <v>14</v>
       </c>
       <c r="B22" s="77" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C22" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="D22" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="77">
+        <v>12</v>
+      </c>
+      <c r="E22" s="77">
+        <v>503</v>
+      </c>
+      <c r="F22" s="77" t="str">
+        <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
+        <v>Аналит2[10 %]</v>
+      </c>
+      <c r="G22" s="75">
+        <f>Оценка!D16</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="74">
+        <v>10</v>
+      </c>
+      <c r="I22" s="74" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="79">
+        <v>15</v>
+      </c>
+      <c r="B23" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="E22" s="77">
-        <v>510</v>
-      </c>
-      <c r="F22" s="77" t="str">
-        <f>CONCATENATE("Аналит1[",Таблица1[[#This Row],[Проценты]]," %]")</f>
-        <v>Аналит1[33 %]</v>
-      </c>
-      <c r="G22" s="75">
-        <f>Оценка!D23</f>
-        <v>32</v>
-      </c>
-      <c r="H22" s="74">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="80">
-        <v>14</v>
-      </c>
-      <c r="B23" s="77" t="s">
+      <c r="E23" s="77">
+        <v>512</v>
+      </c>
+      <c r="F23" s="77" t="str">
+        <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
+        <v>Аналит3[100 %]</v>
+      </c>
+      <c r="G23" s="75">
         <v>30</v>
       </c>
-      <c r="C23" s="77" t="s">
-        <v>87</v>
-      </c>
-      <c r="D23" s="77">
-        <v>12</v>
-      </c>
-      <c r="E23" s="77">
-        <v>503</v>
-      </c>
-      <c r="F23" s="77" t="str">
-        <f>CONCATENATE("Аналит1[",Таблица1[[#This Row],[Проценты]]," %]")</f>
-        <v>Аналит1[10 %]</v>
-      </c>
-      <c r="G23" s="75">
-        <f>Оценка!D16</f>
-        <v>0</v>
-      </c>
       <c r="H23" s="74">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="I23" s="74" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="79">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B24" s="77" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="C24" s="77" t="s">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="D24" s="77">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E24" s="77">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F24" s="77" t="str">
-        <f>CONCATENATE("Аналит1[",Таблица1[[#This Row],[Проценты]]," %]")</f>
-        <v>Аналит1[100 %]</v>
+        <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
+        <v>Аналит4[100 %]</v>
       </c>
       <c r="G24" s="75">
-        <v>30</v>
+        <f>Оценка!D26</f>
+        <v>50</v>
       </c>
       <c r="H24" s="74">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="80"/>
-      <c r="B25" s="77"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="74"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="79">
-        <v>16</v>
-      </c>
-      <c r="B26" s="77" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" s="77">
-        <v>6</v>
-      </c>
-      <c r="E26" s="77">
-        <v>511</v>
-      </c>
-      <c r="F26" s="77" t="str">
-        <f>CONCATENATE("Аналит1[",Таблица1[[#This Row],[Проценты]]," %]")</f>
-        <v>Аналит1[100 %]</v>
-      </c>
-      <c r="G26" s="75">
-        <f>Оценка!D26</f>
-        <v>50</v>
-      </c>
-      <c r="H26" s="74">
-        <v>100</v>
+      <c r="I24" s="74" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="G16:G24" calculatedColumn="1"/>
+    <ignoredError sqref="G16:G18 G19:G23" calculatedColumn="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -3715,6 +3784,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Документ" ma:contentTypeID="0x0101001FBA738D46B8C545A6D67A5D9179E626" ma:contentTypeVersion="0" ma:contentTypeDescription="Создание документа." ma:contentTypeScope="" ma:versionID="9f473e0b291382668614debc5d36aa4f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="02f955febea7e716b4e91cddba171100">
     <xsd:element name="properties">
@@ -3828,22 +3912,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{676BF1D7-A4D9-4478-A8BA-91CF146DE1C8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B50A027-145D-4944-89ED-C0E81732859B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D38F7E9-60F0-4769-BD1B-491B9D9189ED}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3857,27 +3949,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B50A027-145D-4944-89ED-C0E81732859B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{676BF1D7-A4D9-4478-A8BA-91CF146DE1C8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Расшифровка ЭО BIQ5257.xlsx
+++ b/Расшифровка ЭО BIQ5257.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\info\Эрнест\20191217\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\info\Эрнест\git\Diplom\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="8535" tabRatio="735" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="8535" tabRatio="735" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Оценка" sheetId="25" r:id="rId1"/>
@@ -956,23 +956,23 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1488,8 +1488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2260,52 +2260,52 @@
       <c r="B6" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="88" t="s">
+      <c r="C6" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="87" t="s">
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
-      <c r="N6" s="87"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="85"/>
+      <c r="N6" s="85"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="45"/>
       <c r="B7" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="87" t="s">
+      <c r="C7" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87" t="s">
+      <c r="D7" s="85"/>
+      <c r="E7" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87" t="s">
+      <c r="F7" s="85"/>
+      <c r="G7" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87" t="s">
+      <c r="H7" s="85"/>
+      <c r="I7" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="87"/>
-      <c r="K7" s="87" t="s">
+      <c r="J7" s="85"/>
+      <c r="K7" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="L7" s="87"/>
-      <c r="M7" s="87" t="s">
+      <c r="L7" s="85"/>
+      <c r="M7" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="N7" s="87"/>
+      <c r="N7" s="85"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="45"/>
@@ -2394,7 +2394,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="86" t="s">
+      <c r="A10" s="90" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="59" t="s">
@@ -2438,7 +2438,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="86"/>
+      <c r="A11" s="90"/>
       <c r="B11" s="59" t="s">
         <v>23</v>
       </c>
@@ -2480,7 +2480,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="86" t="s">
+      <c r="A12" s="90" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="59" t="s">
@@ -2524,7 +2524,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="86"/>
+      <c r="A13" s="90"/>
       <c r="B13" s="59" t="s">
         <v>6</v>
       </c>
@@ -2566,7 +2566,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="86" t="s">
+      <c r="A14" s="90" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="59" t="s">
@@ -2610,7 +2610,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="86"/>
+      <c r="A15" s="90"/>
       <c r="B15" s="59" t="s">
         <v>7</v>
       </c>
@@ -2652,7 +2652,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="86" t="s">
+      <c r="A16" s="90" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="59" t="s">
@@ -2696,7 +2696,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="86"/>
+      <c r="A17" s="90"/>
       <c r="B17" s="59" t="s">
         <v>30</v>
       </c>
@@ -2782,7 +2782,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="86" t="s">
+      <c r="A19" s="90" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="59" t="s">
@@ -2826,7 +2826,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="86"/>
+      <c r="A20" s="90"/>
       <c r="B20" s="59" t="s">
         <v>16</v>
       </c>
@@ -2922,7 +2922,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="85" t="s">
+      <c r="A22" s="89" t="s">
         <v>36</v>
       </c>
       <c r="B22" s="56" t="s">
@@ -2966,7 +2966,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="85"/>
+      <c r="A23" s="89"/>
       <c r="B23" s="56" t="s">
         <v>37</v>
       </c>
@@ -3008,7 +3008,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="85"/>
+      <c r="A24" s="89"/>
       <c r="B24" s="56" t="s">
         <v>38</v>
       </c>
@@ -3107,6 +3107,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A19:A20"/>
     <mergeCell ref="I6:N6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
@@ -3115,12 +3121,6 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="C6:H6"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A19:A20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3132,7 +3132,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="216.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3150,22 +3150,33 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="C1" s="4" t="str">
+        <f>Оценка!C1</f>
+        <v xml:space="preserve">BIQ-5257 Реализация передачи уникального идентификатора договора (сделки) в бюро кредитных историй </v>
+      </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="C2" s="4" t="str">
+        <f>Оценка!C2</f>
+        <v>ЦФТ</v>
+      </c>
+      <c r="D2" s="4" t="str">
+        <f>IF(C2="ЦФТ","JIRACFT","JIRABIS")</f>
+        <v>JIRACFT</v>
+      </c>
+      <c r="E2" s="77" t="str">
+        <f>IF(C2="ЦФТ","25","25")</f>
+        <v>25</v>
+      </c>
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
@@ -3784,18 +3795,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3913,6 +3924,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B50A027-145D-4944-89ED-C0E81732859B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{676BF1D7-A4D9-4478-A8BA-91CF146DE1C8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -3923,14 +3942,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B50A027-145D-4944-89ED-C0E81732859B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Расшифровка ЭО BIQ5257.xlsx
+++ b/Расшифровка ЭО BIQ5257.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\info\Эрнест\git\Diplom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Эрнест\Documents\GitHub\Diplom\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="8535" tabRatio="735" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="9435" tabRatio="735" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Оценка" sheetId="25" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="168">
   <si>
     <t>Разработка</t>
   </si>
@@ -398,12 +398,186 @@
   <si>
     <t>Аналит4</t>
   </si>
+  <si>
+    <t>Группа</t>
+  </si>
+  <si>
+    <t>Бухучет и вспом. функц.</t>
+  </si>
+  <si>
+    <t>Интеграция</t>
+  </si>
+  <si>
+    <t>Кредиты</t>
+  </si>
+  <si>
+    <t>РОК ЮЛ</t>
+  </si>
+  <si>
+    <t>Отчетность ФЦТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Депозиты и РКО ФЛ</t>
+  </si>
+  <si>
+    <t>ЦХД</t>
+  </si>
+  <si>
+    <t>Функциональная область</t>
+  </si>
+  <si>
+    <t>Кредиты - розничный бизнес </t>
+  </si>
+  <si>
+    <t>Предкредитка</t>
+  </si>
+  <si>
+    <t>Кредиты ЮЛ - 1. Малый, средний, крупный, крупнейший; 2. Микро-бизнес; 3.Гарантии; </t>
+  </si>
+  <si>
+    <t>Гарантии</t>
+  </si>
+  <si>
+    <t>Бухгалтерский и налоговый учет</t>
+  </si>
+  <si>
+    <t>МСФО </t>
+  </si>
+  <si>
+    <t>ЗОД (закрытие операционного дня)</t>
+  </si>
+  <si>
+    <t>АХД</t>
+  </si>
+  <si>
+    <t>Обязательная отчетность</t>
+  </si>
+  <si>
+    <t>РКО - розничный бизнес + расчетные аккредитивы</t>
+  </si>
+  <si>
+    <t>РКО - корпоративный бизнес + расчетные аккредитивы</t>
+  </si>
+  <si>
+    <t>"Электронный документооборот" (ФНС, ФССП, ГИС ГМП, ГИС ЖКХ)</t>
+  </si>
+  <si>
+    <t>ПБОС</t>
+  </si>
+  <si>
+    <t>Документарные операции - экспортные и импортные аккредитивы</t>
+  </si>
+  <si>
+    <t>Валютный контроль</t>
+  </si>
+  <si>
+    <t>Страховые и агентские продукты</t>
+  </si>
+  <si>
+    <t>Карты</t>
+  </si>
+  <si>
+    <t>Касса</t>
+  </si>
+  <si>
+    <t>Лотереи</t>
+  </si>
+  <si>
+    <t>ИБС</t>
+  </si>
+  <si>
+    <t>Депозиты- розничный бизнес</t>
+  </si>
+  <si>
+    <t>Депозиты- корпоративный бизнес</t>
+  </si>
+  <si>
+    <t>Финансовый мониторинг</t>
+  </si>
+  <si>
+    <t>Клиенты-ЮЛ</t>
+  </si>
+  <si>
+    <t>Клиенты-ФЛ</t>
+  </si>
+  <si>
+    <t>Конверсии в чаcти межбанковских операций, Межбанк, Интеграция с СОФР, Дилинг</t>
+  </si>
+  <si>
+    <t>Информационная безопасность</t>
+  </si>
+  <si>
+    <t>Резервы </t>
+  </si>
+  <si>
+    <t>Выгрузка в soft collection</t>
+  </si>
+  <si>
+    <t>Выгрузка в ЕБПЗ</t>
+  </si>
+  <si>
+    <t>ТБСВК</t>
+  </si>
+  <si>
+    <t>Система управления очередью</t>
+  </si>
+  <si>
+    <t>ЕФР</t>
+  </si>
+  <si>
+    <t>ДБО ФЛ</t>
+  </si>
+  <si>
+    <t>ДБО ЮЛ (ЦСДБО, НДБО)</t>
+  </si>
+  <si>
+    <t>Брокерское обслуживание</t>
+  </si>
+  <si>
+    <t>Управленческая отчетность, отчетность филиалов</t>
+  </si>
+  <si>
+    <t>Расчетный центр, МФР</t>
+  </si>
+  <si>
+    <t>Реестровые зачисления(ПФР, Зарплата и тп)</t>
+  </si>
+  <si>
+    <t>Обеспечения </t>
+  </si>
+  <si>
+    <t>Счета Эскроу</t>
+  </si>
+  <si>
+    <t>ПАК ЭКР</t>
+  </si>
+  <si>
+    <t>Оптимизация SQL-запросов</t>
+  </si>
+  <si>
+    <t>Оптимизация хранения данных (партиционирование)</t>
+  </si>
+  <si>
+    <t>Оптимизация PL/SQL</t>
+  </si>
+  <si>
+    <t>Сопровождение систем</t>
+  </si>
+  <si>
+    <t>Подготовка планов и работа по внедрениям</t>
+  </si>
+  <si>
+    <t>Мониторинг доступности и прозиводительности</t>
+  </si>
+  <si>
+    <t>Тег</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -528,8 +702,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -618,6 +800,18 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -721,10 +915,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="justify"/>
@@ -933,9 +1129,6 @@
     <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="justify"/>
     </xf>
@@ -956,6 +1149,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -968,17 +1167,99 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="4" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="20% — акцент3" xfId="1" builtinId="38"/>
+    <cellStyle name="40% — акцент3" xfId="2" builtinId="39"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="justify" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1142,24 +1423,6 @@
       </font>
       <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1179,21 +1442,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="B7:I24" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="B7:I24"/>
-  <tableColumns count="8">
-    <tableColumn id="1" name="Наименование работы в оценке" dataDxfId="7"/>
-    <tableColumn id="2" name="Наименование работы в MS Project" dataDxfId="6"/>
-    <tableColumn id="3" name="Предшественники" dataDxfId="5"/>
-    <tableColumn id="4" name="Тип Работы" dataDxfId="4"/>
-    <tableColumn id="5" name="Исполнители" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="B7:L24" totalsRowShown="0" headerRowDxfId="1" dataDxfId="12">
+  <autoFilter ref="B7:L24"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="Наименование работы в оценке" dataDxfId="11"/>
+    <tableColumn id="2" name="Наименование работы в MS Project" dataDxfId="10"/>
+    <tableColumn id="3" name="Предшественники" dataDxfId="9"/>
+    <tableColumn id="4" name="Тип Работы" dataDxfId="8"/>
+    <tableColumn id="5" name="Исполнители" dataDxfId="7">
       <calculatedColumnFormula>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Часы" dataDxfId="2">
+    <tableColumn id="6" name="Часы" dataDxfId="6">
       <calculatedColumnFormula>Оценка!D8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Проценты" dataDxfId="1"/>
-    <tableColumn id="8" name="Исполнитель" dataDxfId="0"/>
+    <tableColumn id="7" name="Проценты" dataDxfId="5"/>
+    <tableColumn id="8" name="Исполнитель" dataDxfId="4"/>
+    <tableColumn id="9" name="Группа" dataDxfId="3"/>
+    <tableColumn id="10" name="Функциональная область" dataDxfId="2"/>
+    <tableColumn id="11" name="Тег" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1489,7 +1755,7 @@
   <dimension ref="A1:AD28"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1574,11 +1840,11 @@
       <c r="S6" s="5"/>
     </row>
     <row r="7" spans="1:20" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
       <c r="D7" s="22" t="s">
         <v>51</v>
       </c>
@@ -1595,7 +1861,7 @@
       <c r="S7" s="5"/>
     </row>
     <row r="8" spans="1:20" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="84" t="s">
+      <c r="A8" s="83" t="s">
         <v>53</v>
       </c>
       <c r="B8" s="12" t="s">
@@ -1627,8 +1893,8 @@
       <c r="S8" s="5"/>
     </row>
     <row r="9" spans="1:20" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="84"/>
-      <c r="B9" s="82" t="s">
+      <c r="A9" s="83"/>
+      <c r="B9" s="81" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="69" t="s">
@@ -1657,8 +1923,8 @@
       <c r="S9" s="5"/>
     </row>
     <row r="10" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="84"/>
-      <c r="B10" s="82"/>
+      <c r="A10" s="83"/>
+      <c r="B10" s="81"/>
       <c r="C10" s="30" t="s">
         <v>23</v>
       </c>
@@ -1685,8 +1951,8 @@
       <c r="S10" s="5"/>
     </row>
     <row r="11" spans="1:20" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="84"/>
-      <c r="B11" s="82" t="s">
+      <c r="A11" s="83"/>
+      <c r="B11" s="81" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="69" t="s">
@@ -1716,8 +1982,8 @@
       <c r="T11" s="5"/>
     </row>
     <row r="12" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="84"/>
-      <c r="B12" s="82"/>
+      <c r="A12" s="83"/>
+      <c r="B12" s="81"/>
       <c r="C12" s="30" t="s">
         <v>6</v>
       </c>
@@ -1740,8 +2006,8 @@
       <c r="T12" s="5"/>
     </row>
     <row r="13" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="84"/>
-      <c r="B13" s="82" t="s">
+      <c r="A13" s="83"/>
+      <c r="B13" s="81" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="30" t="s">
@@ -1771,8 +2037,8 @@
       <c r="T13" s="5"/>
     </row>
     <row r="14" spans="1:20" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="84"/>
-      <c r="B14" s="82"/>
+      <c r="A14" s="83"/>
+      <c r="B14" s="81"/>
       <c r="C14" s="69" t="s">
         <v>7</v>
       </c>
@@ -1800,8 +2066,8 @@
       <c r="T14" s="5"/>
     </row>
     <row r="15" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="84"/>
-      <c r="B15" s="82" t="s">
+      <c r="A15" s="83"/>
+      <c r="B15" s="81" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="30" t="s">
@@ -1831,8 +2097,8 @@
       <c r="T15" s="5"/>
     </row>
     <row r="16" spans="1:20" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="84"/>
-      <c r="B16" s="82"/>
+      <c r="A16" s="83"/>
+      <c r="B16" s="81"/>
       <c r="C16" s="30" t="s">
         <v>30</v>
       </c>
@@ -1853,7 +2119,7 @@
       <c r="T16" s="5"/>
     </row>
     <row r="17" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="84"/>
+      <c r="A17" s="83"/>
       <c r="B17" s="12" t="s">
         <v>31</v>
       </c>
@@ -1877,8 +2143,8 @@
       <c r="T17" s="5"/>
     </row>
     <row r="18" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="84"/>
-      <c r="B18" s="82" t="s">
+      <c r="A18" s="83"/>
+      <c r="B18" s="81" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="30" t="s">
@@ -1901,8 +2167,8 @@
       <c r="T18" s="5"/>
     </row>
     <row r="19" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="84"/>
-      <c r="B19" s="82"/>
+      <c r="A19" s="83"/>
+      <c r="B19" s="81"/>
       <c r="C19" s="30" t="s">
         <v>16</v>
       </c>
@@ -1923,7 +2189,7 @@
       <c r="T19" s="5"/>
     </row>
     <row r="20" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="84"/>
+      <c r="A20" s="83"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9" t="s">
         <v>48</v>
@@ -1944,10 +2210,10 @@
       <c r="T20" s="5"/>
     </row>
     <row r="21" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="83" t="s">
+      <c r="A21" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="82" t="s">
         <v>36</v>
       </c>
       <c r="C21" s="31" t="s">
@@ -1971,8 +2237,8 @@
       <c r="T21" s="5"/>
     </row>
     <row r="22" spans="1:20" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="83"/>
-      <c r="B22" s="83"/>
+      <c r="A22" s="82"/>
+      <c r="B22" s="82"/>
       <c r="C22" s="69" t="s">
         <v>37</v>
       </c>
@@ -1993,8 +2259,8 @@
       <c r="T22" s="5"/>
     </row>
     <row r="23" spans="1:20" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="83"/>
-      <c r="B23" s="83"/>
+      <c r="A23" s="82"/>
+      <c r="B23" s="82"/>
       <c r="C23" s="31" t="s">
         <v>38</v>
       </c>
@@ -2016,7 +2282,7 @@
       <c r="T23" s="5"/>
     </row>
     <row r="24" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="83"/>
+      <c r="A24" s="82"/>
       <c r="B24" s="10"/>
       <c r="C24" s="33" t="s">
         <v>47</v>
@@ -2192,10 +2458,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:P76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O6" sqref="O6:R24"/>
+    <sheetView topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2260,52 +2526,52 @@
       <c r="B6" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="86" t="s">
+      <c r="C6" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="85" t="s">
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="86" t="s">
         <v>55</v>
       </c>
-      <c r="J6" s="85"/>
-      <c r="K6" s="85"/>
-      <c r="L6" s="85"/>
-      <c r="M6" s="85"/>
-      <c r="N6" s="85"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="86"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="45"/>
       <c r="B7" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="85" t="s">
+      <c r="C7" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85" t="s">
+      <c r="D7" s="86"/>
+      <c r="E7" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85" t="s">
+      <c r="F7" s="86"/>
+      <c r="G7" s="86" t="s">
         <v>68</v>
       </c>
-      <c r="H7" s="85"/>
-      <c r="I7" s="85" t="s">
+      <c r="H7" s="86"/>
+      <c r="I7" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="85"/>
-      <c r="K7" s="85" t="s">
+      <c r="J7" s="86"/>
+      <c r="K7" s="86" t="s">
         <v>55</v>
       </c>
-      <c r="L7" s="85"/>
-      <c r="M7" s="85" t="s">
+      <c r="L7" s="86"/>
+      <c r="M7" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="N7" s="85"/>
+      <c r="N7" s="86"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="45"/>
@@ -2394,7 +2660,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="90" t="s">
+      <c r="A10" s="85" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="59" t="s">
@@ -2438,7 +2704,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="90"/>
+      <c r="A11" s="85"/>
       <c r="B11" s="59" t="s">
         <v>23</v>
       </c>
@@ -2480,7 +2746,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="90" t="s">
+      <c r="A12" s="85" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="59" t="s">
@@ -2524,7 +2790,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="90"/>
+      <c r="A13" s="85"/>
       <c r="B13" s="59" t="s">
         <v>6</v>
       </c>
@@ -2566,7 +2832,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="90" t="s">
+      <c r="A14" s="85" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="59" t="s">
@@ -2610,7 +2876,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="90"/>
+      <c r="A15" s="85"/>
       <c r="B15" s="59" t="s">
         <v>7</v>
       </c>
@@ -2652,7 +2918,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="90" t="s">
+      <c r="A16" s="85" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="59" t="s">
@@ -2696,7 +2962,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="90"/>
+      <c r="A17" s="85"/>
       <c r="B17" s="59" t="s">
         <v>30</v>
       </c>
@@ -2782,7 +3048,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="90" t="s">
+      <c r="A19" s="85" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="59" t="s">
@@ -2826,7 +3092,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="90"/>
+      <c r="A20" s="85"/>
       <c r="B20" s="59" t="s">
         <v>16</v>
       </c>
@@ -2922,7 +3188,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="89" t="s">
+      <c r="A22" s="84" t="s">
         <v>36</v>
       </c>
       <c r="B22" s="56" t="s">
@@ -2966,7 +3232,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="89"/>
+      <c r="A23" s="84"/>
       <c r="B23" s="56" t="s">
         <v>37</v>
       </c>
@@ -3008,7 +3274,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="89"/>
+      <c r="A24" s="84"/>
       <c r="B24" s="56" t="s">
         <v>38</v>
       </c>
@@ -3105,14 +3371,282 @@
       <c r="O25" s="71"/>
       <c r="P25" s="73"/>
     </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="94" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" s="95" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="92" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" s="93" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="92" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" s="93" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="92" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" s="93" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="92" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" s="93" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="92" t="s">
+        <v>115</v>
+      </c>
+      <c r="B32" s="93" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="92" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33" s="93" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="92" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" s="93" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="93" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="93" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B37" s="93" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B38" s="93" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B39" s="93" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="93" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B41" s="93" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="93" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="93" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="93" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="93" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="93" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="93" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="93" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="93" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="93" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="93" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="93" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="B53" s="93" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="93" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="93" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="93" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="93" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="93" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="93" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="93" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="93" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="93" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63" s="93" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="93" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B65" s="93" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="93" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B67" s="93" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="93" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="93" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="93" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="93" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B72" s="93" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="93" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="93" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B75" s="93" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B76" s="93" t="s">
+        <v>166</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A19:A20"/>
     <mergeCell ref="I6:N6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
@@ -3121,6 +3655,12 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="C6:H6"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A19:A20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3129,10 +3669,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="216.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3146,9 +3686,14 @@
     <col min="7" max="7" width="19.28515625" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" customWidth="1"/>
+    <col min="13" max="14" width="10" customWidth="1"/>
+    <col min="15" max="16" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4" t="str">
         <f>Оценка!C1</f>
@@ -3158,7 +3703,7 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="str">
         <f>Оценка!C2</f>
@@ -3168,83 +3713,92 @@
         <f>IF(C2="ЦФТ","JIRACFT","JIRABIS")</f>
         <v>JIRACFT</v>
       </c>
-      <c r="E2" s="77" t="str">
+      <c r="E2" s="76" t="str">
         <f>IF(C2="ЦФТ","25","25")</f>
         <v>25</v>
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="76" t="s">
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="90" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="G7" s="74" t="s">
+      <c r="G7" s="91" t="s">
         <v>98</v>
       </c>
-      <c r="H7" s="74" t="s">
+      <c r="H7" s="91" t="s">
         <v>101</v>
       </c>
-      <c r="I7" s="74" t="s">
+      <c r="I7" s="91" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="79">
-        <v>0</v>
-      </c>
-      <c r="B8" s="77" t="s">
+      <c r="J7" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="78">
+        <v>0</v>
+      </c>
+      <c r="B8" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="77" t="s">
+      <c r="C8" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="78"/>
-      <c r="E8" s="77">
+      <c r="D8" s="77"/>
+      <c r="E8" s="76">
         <v>495</v>
       </c>
-      <c r="F8" s="77" t="str">
+      <c r="F8" s="76" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
         <v>Аналит1[15 %]</v>
       </c>
@@ -3258,25 +3812,28 @@
       <c r="I8" s="74" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="80">
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="79">
         <v>1</v>
       </c>
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="77" t="s">
+      <c r="C9" s="76" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="77">
+      <c r="D9" s="76">
         <f>A8</f>
         <v>0</v>
       </c>
-      <c r="E9" s="77">
+      <c r="E9" s="76">
         <v>496</v>
       </c>
-      <c r="F9" s="77" t="str">
+      <c r="F9" s="76" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
         <v>Аналит1[5 %]</v>
       </c>
@@ -3290,25 +3847,28 @@
       <c r="I9" s="74" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="79">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="78">
         <v>2</v>
       </c>
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="77" t="s">
+      <c r="C10" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="77">
+      <c r="D10" s="76">
         <f>A9</f>
         <v>1</v>
       </c>
-      <c r="E10" s="77">
+      <c r="E10" s="76">
         <v>497</v>
       </c>
-      <c r="F10" s="77" t="str">
+      <c r="F10" s="76" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
         <v>Аналит1[5 %]</v>
       </c>
@@ -3322,25 +3882,28 @@
       <c r="I10" s="74" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="80">
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="79">
         <v>3</v>
       </c>
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="77" t="s">
+      <c r="C11" s="76" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="77">
+      <c r="D11" s="76">
         <f t="shared" ref="D11:D14" si="0">A10</f>
         <v>2</v>
       </c>
-      <c r="E11" s="77">
+      <c r="E11" s="76">
         <v>498</v>
       </c>
-      <c r="F11" s="77" t="str">
+      <c r="F11" s="76" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
         <v>Аналит1[10 %]</v>
       </c>
@@ -3354,25 +3917,28 @@
       <c r="I11" s="74" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="79">
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="78">
         <v>4</v>
       </c>
-      <c r="B12" s="77" t="s">
+      <c r="B12" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="77" t="s">
+      <c r="C12" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="77">
+      <c r="D12" s="76">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E12" s="77">
+      <c r="E12" s="76">
         <v>499</v>
       </c>
-      <c r="F12" s="77" t="str">
+      <c r="F12" s="76" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
         <v>Аналит1[5 %]</v>
       </c>
@@ -3386,25 +3952,28 @@
       <c r="I12" s="74" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="80">
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="79">
         <v>5</v>
       </c>
-      <c r="B13" s="77" t="s">
+      <c r="B13" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="77" t="s">
+      <c r="C13" s="76" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="77">
+      <c r="D13" s="76">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E13" s="77">
+      <c r="E13" s="76">
         <v>500</v>
       </c>
-      <c r="F13" s="77" t="str">
+      <c r="F13" s="76" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
         <v>Аналит1[5 %]</v>
       </c>
@@ -3418,25 +3987,28 @@
       <c r="I13" s="74" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="79">
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="78">
         <v>6</v>
       </c>
-      <c r="B14" s="77" t="s">
+      <c r="B14" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="77" t="s">
+      <c r="C14" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="77">
+      <c r="D14" s="76">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E14" s="77">
+      <c r="E14" s="76">
         <v>501</v>
       </c>
-      <c r="F14" s="77" t="str">
+      <c r="F14" s="76" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
         <v>Аналит1[10 %]</v>
       </c>
@@ -3450,24 +4022,27 @@
       <c r="I14" s="74" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="80">
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="79">
         <v>7</v>
       </c>
-      <c r="B15" s="77" t="s">
+      <c r="B15" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="77" t="s">
+      <c r="C15" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="77" t="s">
+      <c r="D15" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="E15" s="77">
+      <c r="E15" s="76">
         <v>502</v>
       </c>
-      <c r="F15" s="77" t="str">
+      <c r="F15" s="76" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
         <v>Аналит1[10 %]</v>
       </c>
@@ -3481,24 +4056,27 @@
       <c r="I15" s="74" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="79">
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="78">
         <v>8</v>
       </c>
-      <c r="B16" s="77" t="s">
+      <c r="B16" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="77" t="s">
+      <c r="C16" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="D16" s="77">
+      <c r="D16" s="76">
         <v>14</v>
       </c>
-      <c r="E16" s="77">
+      <c r="E16" s="76">
         <v>504</v>
       </c>
-      <c r="F16" s="77" t="str">
+      <c r="F16" s="76" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
         <v>Аналит1[5 %]</v>
       </c>
@@ -3512,24 +4090,27 @@
       <c r="I16" s="74" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="80">
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="79">
         <v>9</v>
       </c>
-      <c r="B17" s="77" t="s">
+      <c r="B17" s="76" t="s">
         <v>97</v>
       </c>
-      <c r="C17" s="77" t="s">
+      <c r="C17" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="78" t="s">
+      <c r="D17" s="77" t="s">
         <v>104</v>
       </c>
-      <c r="E17" s="77">
+      <c r="E17" s="76">
         <v>505</v>
       </c>
-      <c r="F17" s="77" t="str">
+      <c r="F17" s="76" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
         <v>Аналит1[15 %]</v>
       </c>
@@ -3543,24 +4124,27 @@
       <c r="I17" s="74" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="79">
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="78">
         <v>10</v>
       </c>
-      <c r="B18" s="77" t="s">
+      <c r="B18" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="77" t="s">
+      <c r="C18" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="77">
+      <c r="D18" s="76">
         <v>8</v>
       </c>
-      <c r="E18" s="77">
+      <c r="E18" s="76">
         <v>506</v>
       </c>
-      <c r="F18" s="77" t="str">
+      <c r="F18" s="76" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
         <v>Аналит1[5 %]</v>
       </c>
@@ -3574,24 +4158,27 @@
       <c r="I18" s="74" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="80">
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="79">
         <v>11</v>
       </c>
-      <c r="B19" s="77" t="s">
+      <c r="B19" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="77" t="s">
+      <c r="C19" s="76" t="s">
         <v>90</v>
       </c>
-      <c r="D19" s="78" t="s">
+      <c r="D19" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="E19" s="77">
+      <c r="E19" s="76">
         <v>508</v>
       </c>
-      <c r="F19" s="77" t="str">
+      <c r="F19" s="76" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
         <v>Аналит2</v>
       </c>
@@ -3603,24 +4190,27 @@
       <c r="I19" s="74" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="80">
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="79">
         <v>12</v>
       </c>
-      <c r="B20" s="77" t="s">
+      <c r="B20" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="77" t="s">
+      <c r="C20" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="77">
+      <c r="D20" s="76">
         <v>6</v>
       </c>
-      <c r="E20" s="77">
+      <c r="E20" s="76">
         <v>509</v>
       </c>
-      <c r="F20" s="77" t="str">
+      <c r="F20" s="76" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
         <v>Аналит2[33 %]</v>
       </c>
@@ -3634,24 +4224,27 @@
       <c r="I20" s="74" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="79">
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="78">
         <v>13</v>
       </c>
-      <c r="B21" s="77" t="s">
+      <c r="B21" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="77" t="s">
+      <c r="C21" s="76" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="77" t="s">
+      <c r="D21" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="E21" s="77">
+      <c r="E21" s="76">
         <v>510</v>
       </c>
-      <c r="F21" s="77" t="str">
+      <c r="F21" s="76" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
         <v>Аналит1[33 %]</v>
       </c>
@@ -3665,24 +4258,27 @@
       <c r="I21" s="74" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="80">
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="79">
         <v>14</v>
       </c>
-      <c r="B22" s="77" t="s">
+      <c r="B22" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="77" t="s">
+      <c r="C22" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="77">
+      <c r="D22" s="76">
         <v>12</v>
       </c>
-      <c r="E22" s="77">
+      <c r="E22" s="76">
         <v>503</v>
       </c>
-      <c r="F22" s="77" t="str">
+      <c r="F22" s="76" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
         <v>Аналит2[10 %]</v>
       </c>
@@ -3696,24 +4292,27 @@
       <c r="I22" s="74" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="79">
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="78">
         <v>15</v>
       </c>
-      <c r="B23" s="77" t="s">
+      <c r="B23" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="C23" s="77" t="s">
+      <c r="C23" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="D23" s="77" t="s">
+      <c r="D23" s="76" t="s">
         <v>102</v>
       </c>
-      <c r="E23" s="77">
+      <c r="E23" s="76">
         <v>512</v>
       </c>
-      <c r="F23" s="77" t="str">
+      <c r="F23" s="76" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
         <v>Аналит3[100 %]</v>
       </c>
@@ -3726,24 +4325,27 @@
       <c r="I23" s="74" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="79">
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="78">
         <v>16</v>
       </c>
-      <c r="B24" s="77" t="s">
+      <c r="B24" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="77">
+      <c r="C24" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="76">
         <v>6</v>
       </c>
-      <c r="E24" s="77">
+      <c r="E24" s="76">
         <v>511</v>
       </c>
-      <c r="F24" s="77" t="str">
+      <c r="F24" s="76" t="str">
         <f>IF(Таблица1[[#This Row],[Проценты]]="",Таблица1[[#This Row],[Исполнитель]],CONCATENATE(Таблица1[[#This Row],[Исполнитель]],"[",Таблица1[[#This Row],[Проценты]]," %]"))</f>
         <v>Аналит4[100 %]</v>
       </c>
@@ -3757,6 +4359,9 @@
       <c r="I24" s="74" t="s">
         <v>109</v>
       </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3769,7 +4374,7 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Справочники!$C$2:$C$4</xm:f>
@@ -3788,6 +4393,18 @@
           </x14:formula1>
           <xm:sqref>B2:C2</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Справочники!$A$28:$A$34</xm:f>
+          </x14:formula1>
+          <xm:sqref>J8:J24</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Справочники!$B$28:$B$76</xm:f>
+          </x14:formula1>
+          <xm:sqref>K8</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -3795,21 +4412,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Документ" ma:contentTypeID="0x0101001FBA738D46B8C545A6D67A5D9179E626" ma:contentTypeVersion="0" ma:contentTypeDescription="Создание документа." ma:contentTypeScope="" ma:versionID="9f473e0b291382668614debc5d36aa4f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="02f955febea7e716b4e91cddba171100">
     <xsd:element name="properties">
@@ -3923,10 +4525,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B50A027-145D-4944-89ED-C0E81732859B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D38F7E9-60F0-4769-BD1B-491B9D9189ED}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3947,17 +4572,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D38F7E9-60F0-4769-BD1B-491B9D9189ED}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B50A027-145D-4944-89ED-C0E81732859B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>